--- a/data/trans_dic/P57_AC_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P57_AC_R-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.8242159950157375</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.6890012826706514</v>
+        <v>0.6890012826706515</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7136389243113019</v>
+        <v>0.7141044811576117</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6772211424773601</v>
+        <v>0.6706459430362498</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7571135760739487</v>
+        <v>0.7581898682371716</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6209943234023444</v>
+        <v>0.6249503095610376</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.7562285872484614</v>
+        <v>0.7565510379945455</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.7346366324139239</v>
+        <v>0.7343294226066029</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8236726040284305</v>
+        <v>0.8249010119378419</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6827760362770271</v>
+        <v>0.6847539531222621</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.7464154401825315</v>
+        <v>0.7460028117515518</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.7158058341093274</v>
+        <v>0.7167861243507938</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.8060961303831596</v>
+        <v>0.8044558814699007</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.6662830388310832</v>
+        <v>0.6658431738794958</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7670613763460586</v>
+        <v>0.7692479240340914</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7334801344264694</v>
+        <v>0.7342596135692969</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8190970960784657</v>
+        <v>0.8175053501146518</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6996640240231123</v>
+        <v>0.698826511278716</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8003421300200115</v>
+        <v>0.7999133018486332</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7816246510819678</v>
+        <v>0.7842509325227348</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8722332403097153</v>
+        <v>0.8719606860833408</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7332429871490683</v>
+        <v>0.733873070732219</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7790453182433065</v>
+        <v>0.7803843365153382</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7532559372326123</v>
+        <v>0.7538660578017189</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.8416881364104745</v>
+        <v>0.8413074799649504</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.710594027349848</v>
+        <v>0.7100506069218969</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.804037757394315</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6245537464902243</v>
+        <v>0.6245537464902242</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.672065167926113</v>
@@ -821,7 +821,7 @@
         <v>0.8321517260734563</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.6407417587274672</v>
+        <v>0.6407417587274673</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.6588275106756089</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6231327952080123</v>
+        <v>0.6203381640205513</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6264897935749342</v>
+        <v>0.6287166539177903</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7864708738779395</v>
+        <v>0.7838449351108321</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5994834774971125</v>
+        <v>0.5990602104939553</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6474097935065991</v>
+        <v>0.6491923164600139</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7145260547158174</v>
+        <v>0.7145548637518214</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.813920141794348</v>
+        <v>0.816339181543929</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.6203691548047471</v>
+        <v>0.6210421257826976</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6410325144152215</v>
+        <v>0.6426954407984697</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.6734493371684859</v>
+        <v>0.6740377861765758</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.8063899820403059</v>
+        <v>0.8047813272965862</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.6153202673154266</v>
+        <v>0.617941237309188</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6705864548538502</v>
+        <v>0.6662119577329098</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6718959433878651</v>
+        <v>0.6737733755870299</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8230980257019124</v>
+        <v>0.8193861678713261</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6493855025366457</v>
+        <v>0.6493805171803261</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6935991281842403</v>
+        <v>0.6935943317966364</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7546720276205108</v>
+        <v>0.7553151513611981</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8495574888986475</v>
+        <v>0.8495363465619349</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6592591615042575</v>
+        <v>0.6615637404062563</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.674316848952632</v>
+        <v>0.6770498527281366</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.7044682662804838</v>
+        <v>0.7045245040020304</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.8301333140291336</v>
+        <v>0.8309266401596872</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.6496007128240172</v>
+        <v>0.6485168510604271</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.7263410834704179</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.5565133512146883</v>
+        <v>0.556513351214688</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.6486840313377564</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6250384176946225</v>
+        <v>0.6292032006219743</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5856707274756141</v>
+        <v>0.5898121106871607</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6991192487390577</v>
+        <v>0.6996175336288418</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5527895466496738</v>
+        <v>0.5538113261467366</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.581040906078513</v>
+        <v>0.5773008970372782</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5936334120019086</v>
+        <v>0.5948580514489377</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.6868785860848196</v>
+        <v>0.6886822474993325</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.523135203240416</v>
+        <v>0.5236371565474933</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.621326292888594</v>
+        <v>0.61810032193277</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.6050353394651892</v>
+        <v>0.6049838675291737</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.7063333796006043</v>
+        <v>0.7017262303460726</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.5475046460289364</v>
+        <v>0.546622540914393</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.706774665060777</v>
+        <v>0.7117938543585507</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6799360206305344</v>
+        <v>0.6778481177702894</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7744410513106635</v>
+        <v>0.7776378044981503</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6332304164781379</v>
+        <v>0.6295650394570872</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.670416740663196</v>
+        <v>0.6735112976621752</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6889628136251914</v>
+        <v>0.690807542731443</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7638238645833693</v>
+        <v>0.7643810006827071</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5918649375624651</v>
+        <v>0.5885196411937212</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6816454195802496</v>
+        <v>0.6786300225999363</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6710110289405036</v>
+        <v>0.671302680030202</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.7580937313396419</v>
+        <v>0.7585435547397491</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5986918806750305</v>
+        <v>0.6021548195063118</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.7904084044594327</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6240723321770103</v>
+        <v>0.6240723321770101</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.7073331137246123</v>
@@ -1093,7 +1093,7 @@
         <v>0.82061038679176</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.6388514766468327</v>
+        <v>0.6388514766468328</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.6938196647783316</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6636245870597266</v>
+        <v>0.6646153448151532</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6445310000217981</v>
+        <v>0.6454385470605014</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7762752128763208</v>
+        <v>0.7753045331691363</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6046214883044527</v>
+        <v>0.6061609444442159</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6919228404733847</v>
+        <v>0.6936585122537485</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.7164229258793766</v>
+        <v>0.7163997923351653</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.806707239344628</v>
+        <v>0.8075855140677384</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.6250649331141652</v>
+        <v>0.6241774516132778</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.6817929174416216</v>
+        <v>0.6824295620488862</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.6850494554022948</v>
+        <v>0.6870150038603813</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.7953820378637102</v>
+        <v>0.7960043062841959</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.6196666690297704</v>
+        <v>0.6194903919848739</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6981465982953924</v>
+        <v>0.6967266276633581</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6800597405706358</v>
+        <v>0.6790322620000846</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8032566445113388</v>
+        <v>0.8035500845900916</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6419274562451351</v>
+        <v>0.6438351856041258</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7232654410224321</v>
+        <v>0.7230161348038332</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7464002130905069</v>
+        <v>0.7467681112679536</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8326490995851855</v>
+        <v>0.8344934199380704</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6543200629278618</v>
+        <v>0.6527523078559274</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7048380959025032</v>
+        <v>0.7055946611859762</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.7083368754435114</v>
+        <v>0.7094244852602515</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.8146647968154024</v>
+        <v>0.8159124325522089</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.6432806369045259</v>
+        <v>0.6431297634197444</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>736278</v>
+        <v>736758</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>651322</v>
+        <v>644998</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>569637</v>
+        <v>570447</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>353453</v>
+        <v>355704</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>994526</v>
+        <v>994950</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>976015</v>
+        <v>975607</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>812962</v>
+        <v>814174</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>548596</v>
+        <v>550185</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1751714</v>
+        <v>1750746</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1639429</v>
+        <v>1641674</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1402103</v>
+        <v>1399250</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>914575</v>
+        <v>913971</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>791395</v>
+        <v>793651</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>705430</v>
+        <v>706179</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>616272</v>
+        <v>615075</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>398229</v>
+        <v>397752</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>1052540</v>
+        <v>1051976</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1038442</v>
+        <v>1041931</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>860891</v>
+        <v>860622</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>589145</v>
+        <v>589652</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1828291</v>
+        <v>1831433</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1725202</v>
+        <v>1726599</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1464011</v>
+        <v>1463349</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>975398</v>
+        <v>974652</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1055221</v>
+        <v>1050489</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1223431</v>
+        <v>1227780</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1622357</v>
+        <v>1616940</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1328244</v>
+        <v>1327307</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1026495</v>
+        <v>1029322</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1251179</v>
+        <v>1251230</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1609701</v>
+        <v>1614485</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1330357</v>
+        <v>1331801</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>2101917</v>
+        <v>2107369</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>2494387</v>
+        <v>2496567</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>3258255</v>
+        <v>3251755</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>2682863</v>
+        <v>2694291</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1135580</v>
+        <v>1128172</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1312102</v>
+        <v>1315768</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1697913</v>
+        <v>1690256</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>1438810</v>
+        <v>1438799</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1099731</v>
+        <v>1099723</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1321478</v>
+        <v>1322604</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1680182</v>
+        <v>1680140</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1413756</v>
+        <v>1418698</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>2211055</v>
+        <v>2220016</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>2609278</v>
+        <v>2609486</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>3354191</v>
+        <v>3357396</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>2832330</v>
+        <v>2827604</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>343004</v>
+        <v>345290</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>279604</v>
+        <v>281582</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>381023</v>
+        <v>381295</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>387641</v>
+        <v>388357</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>276815</v>
+        <v>275033</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>269819</v>
+        <v>270376</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>374025</v>
+        <v>375007</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>381764</v>
+        <v>382130</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>636974</v>
+        <v>633667</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>563851</v>
+        <v>563803</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>769574</v>
+        <v>764555</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>783483</v>
+        <v>782221</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>387859</v>
+        <v>390613</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>324608</v>
+        <v>323611</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>422074</v>
+        <v>423816</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>444050</v>
+        <v>441479</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>319395</v>
+        <v>320869</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>313149</v>
+        <v>313987</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>415924</v>
+        <v>416228</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>431921</v>
+        <v>429479</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>698813</v>
+        <v>695721</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>625336</v>
+        <v>625608</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>825969</v>
+        <v>826459</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>856732</v>
+        <v>861688</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2172647</v>
+        <v>2175890</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2186249</v>
+        <v>2189328</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2608452</v>
+        <v>2605191</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2107750</v>
+        <v>2113116</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2336669</v>
+        <v>2342531</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2531948</v>
+        <v>2531866</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2830929</v>
+        <v>2834011</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2298803</v>
+        <v>2295539</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>4534588</v>
+        <v>4538822</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>4744758</v>
+        <v>4758372</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>5463841</v>
+        <v>5468116</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>4439148</v>
+        <v>4437885</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>2285668</v>
+        <v>2281020</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>2306763</v>
+        <v>2303277</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2699116</v>
+        <v>2700102</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>2237801</v>
+        <v>2244451</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>2442515</v>
+        <v>2441673</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>2637893</v>
+        <v>2639193</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>2921965</v>
+        <v>2928437</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>2406394</v>
+        <v>2400628</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>4687861</v>
+        <v>4692892</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>4906050</v>
+        <v>4913583</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>5596303</v>
+        <v>5604874</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>4608313</v>
+        <v>4607232</v>
       </c>
     </row>
     <row r="20">
